--- a/test.xlsx
+++ b/test.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>age</t>
   </si>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -873,11 +873,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,13 +906,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
         <v>81675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>81931</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -970,14 +981,25 @@
         <v>81931</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>81931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>81931</v>
       </c>
     </row>
